--- a/docs/Mapping/AcademicInstitute.xlsx
+++ b/docs/Mapping/AcademicInstitute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\python\Book\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SnowflakeEnriched\docs\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CD7AA-4836-4F59-88C9-B0BC42754B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464F15D-E733-4E13-9A71-71A48452161C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0E7E497F-7DD4-48AD-83E9-4386F6DE391F}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>CSV file column Identifier</t>
   </si>
   <si>
     <t>Snowflake  staged  column identifier ID</t>
-  </si>
-  <si>
-    <t>Snowflake transformation</t>
   </si>
   <si>
     <t>UNITID</t>
@@ -274,9 +271,6 @@
     <t>NetPriceCalculatorWebAddress</t>
   </si>
   <si>
-    <t>Normalize to JSON document -1</t>
-  </si>
-  <si>
     <t>VETURL</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
   </si>
   <si>
     <t>CarnegieClassification2015EnrollmentProfile</t>
-  </si>
-  <si>
-    <t>Normalize to JSON document -2</t>
   </si>
   <si>
     <t>C15SZSET</t>
@@ -815,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -863,15 +854,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -888,28 +870,6 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -944,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -952,23 +912,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="1" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,23 +948,7 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1132,12 +1073,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D527788-64DB-4C14-8C57-8AC46B5A5EF4}" name="Table2" displayName="Table2" ref="B2:E74" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D04941D-18B7-4A6B-8556-C21D7120205C}" name="CSV file column Identifier" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{EA09C300-B90F-4D6E-99DC-C6C4234C49A6}" name="Snowflake  staged  column identifier ID" dataDxfId="2" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{1BDB0863-1DE4-40DE-94EB-18B775C4BAD2}" name="Snowflake extract load - Entity mapping" dataDxfId="1" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{BF138017-9939-43DA-BBC3-8313EDBE0B00}" name="Snowflake transformation" dataDxfId="0" dataCellStyle="20% - Accent1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D527788-64DB-4C14-8C57-8AC46B5A5EF4}" name="Table2" displayName="Table2" ref="B2:D74" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8D04941D-18B7-4A6B-8556-C21D7120205C}" name="CSV file column Identifier" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{EA09C300-B90F-4D6E-99DC-C6C4234C49A6}" name="Snowflake  staged  column identifier ID" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{1BDB0863-1DE4-40DE-94EB-18B775C4BAD2}" name="Snowflake extract load - Entity mapping" dataDxfId="0" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1440,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5A991-9017-40B4-BF9C-2862DB14CC97}">
-  <dimension ref="B1:H75"/>
+  <dimension ref="B1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1456,8 +1396,8 @@
     <col min="8" max="8" width="31.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:8" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:7" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,928 +1405,849 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="17" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="18" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="13" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="4" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="4" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="6" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="6" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="6" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="6" t="s">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="6" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="6" t="s">
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="6" t="s">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="6" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="6" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="6" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="6" t="s">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="6" t="s">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="6" t="s">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="3" t="s">
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="6" t="s">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="2:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D74" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="75" spans="2:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
